--- a/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/LogBook.xlsx
+++ b/src/server/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/LogBook.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$13:$L$13</definedName>
+  </definedNames>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -43,88 +46,77 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Số ĐT</t>
-  </si>
-  <si>
-    <t>Thời gian tiếp nhận</t>
-  </si>
-  <si>
     <t>Ngày hẹn trả KQ</t>
   </si>
   <si>
-    <t>Quận/Huyện:</t>
-  </si>
-  <si>
-    <t>Tỉnh/TP:</t>
-  </si>
-  <si>
-    <t>Xã/Phường:</t>
-  </si>
-  <si>
-    <t>Kết quả:</t>
-  </si>
-  <si>
-    <t>Mã hồ sơ</t>
-  </si>
-  <si>
-    <t>Công khai:</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Loại vụ việc</t>
-  </si>
-  <si>
-    <t>Kết quả</t>
-  </si>
-  <si>
-    <t>Thời gian tiếp nhận:</t>
-  </si>
-  <si>
-    <t>Từ khóa:</t>
-  </si>
-  <si>
-    <t>Người nộp đơn:</t>
-  </si>
-  <si>
-    <t>Họ và tên người khiếu nại, tố cáo</t>
-  </si>
-  <si>
-    <t>Nội dung khiếu nại, tố cáo</t>
+    <t>Bộ phận đang XL</t>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
+    <t>UBND tỉnh Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Sở Tài nguyên và Môi trường Thái Nguyên</t>
+  </si>
+  <si>
+    <t>SỔ THEO DÕI ĐƠN THƯ KHIẾU NẠI - TỐ CÁO</t>
+  </si>
+  <si>
+    <t>QUYỂN SỐ: ………………………………..</t>
+  </si>
+  <si>
+    <t>Tổng số trang: ……………………..………..</t>
+  </si>
+  <si>
+    <t>Từ ngày ......../......./........... đến ngày ......../......./............</t>
+  </si>
+  <si>
+    <t>Ngày, tháng, năm đơn</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Nội dung đơn</t>
+  </si>
+  <si>
+    <t>KN/KK</t>
+  </si>
+  <si>
+    <t>Tố cáo</t>
+  </si>
+  <si>
+    <t>Kết quả giải quyết</t>
+  </si>
+  <si>
+    <t>Đã giải quyết xong (ghi rõ kết quả)</t>
+  </si>
+  <si>
+    <t>Đang giải quyết</t>
+  </si>
+  <si>
+    <t>Thái Nguyên, ngày …… tháng ……. năm ……….</t>
+  </si>
+  <si>
+    <t>Thủ trưởng cơ quan xác nhận
+(Ký tên, đóng dấu)</t>
+  </si>
+  <si>
+    <t>Phân loại đơn</t>
   </si>
   <si>
     <t>Lĩnh vực</t>
   </si>
   <si>
-    <t>Bộ phận đang XL</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Độc lập - Tự do - Hạnh phúc</t>
-  </si>
-  <si>
-    <t>UBND tỉnh Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Sở Tài nguyên và Môi trường Thái Nguyên</t>
-  </si>
-  <si>
-    <t>Thái Nguyên, Ngày …… Tháng ……. Năm …….</t>
-  </si>
-  <si>
-    <t>Loại vụ việc:</t>
-  </si>
-  <si>
-    <t>Lĩnh vực:</t>
-  </si>
-  <si>
-    <t>SỔ THEO DÕI ĐƠN THƯ KHIẾU NẠI - TỐ CÁO</t>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
@@ -134,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +164,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,14 +214,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -224,23 +316,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,225 +697,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="11" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44567.625</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6">
+        <v>44567.625</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="17" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="16"/>
+      <c r="J18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8">
-        <v>44567.625</v>
-      </c>
-      <c r="J18" s="8">
-        <v>44567.625</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:H2"/>
+  <autoFilter ref="A13:L13"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
